--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFFA181-AAC5-4BD4-A3B6-B3D8ECA8CC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>pilot</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +339,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,12 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFFA181-AAC5-4BD4-A3B6-B3D8ECA8CC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF5A60-3E90-47F2-84EE-4FC7A9EB1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="1890" windowWidth="15375" windowHeight="7875" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="11" sheetId="1" r:id="rId1"/>
+    <sheet name="12" sheetId="2" r:id="rId2"/>
+    <sheet name="13" sheetId="3" r:id="rId3"/>
+    <sheet name="14" sheetId="4" r:id="rId4"/>
+    <sheet name="15" sheetId="5" r:id="rId5"/>
+    <sheet name="16" sheetId="6" r:id="rId6"/>
+    <sheet name="17" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>pilot</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,16 +344,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0A5F5-9C5D-4818-B4E3-CF7DD873C58B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2C2EC-4C05-4B7A-ACF5-F6DC153EB164}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E1B68-FE15-4E75-B7A6-63B0E75BA1CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CD0B6F-0567-4281-BE54-0E2D34CD542D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF5A60-3E90-47F2-84EE-4FC7A9EB1A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA4350-E5C0-4AB8-82F0-35D03303B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1890" windowWidth="15375" windowHeight="7875" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>esti leykind</t>
+  </si>
+  <si>
+    <t>shay tel ari</t>
+  </si>
+  <si>
+    <t>yael naveh</t>
+  </si>
+  <si>
+    <t>yonatan reznik</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,7 +361,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -356,14 +369,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -376,7 +410,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -390,7 +424,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -404,7 +438,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -418,7 +452,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -428,11 +462,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA4350-E5C0-4AB8-82F0-35D03303B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574BB2-9483-4F62-AC74-E58B7C40D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -16,17 +16,28 @@
     <sheet name="16" sheetId="6" r:id="rId6"/>
     <sheet name="17" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>esti leykind</t>
   </si>
@@ -38,6 +49,18 @@
   </si>
   <si>
     <t>yonatan reznik</t>
+  </si>
+  <si>
+    <t>Daniel Magnezi</t>
+  </si>
+  <si>
+    <t>Dniel Mani</t>
+  </si>
+  <si>
+    <t>Ofri Serussi</t>
+  </si>
+  <si>
+    <t>Nitay Man</t>
   </si>
 </sst>
 </file>
@@ -48,7 +71,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,13 +378,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="גיליון1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -369,62 +393,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
+  <sheetPr codeName="גיליון2"/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0A5F5-9C5D-4818-B4E3-CF7DD873C58B}">
+  <sheetPr codeName="גיליון3"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0A5F5-9C5D-4818-B4E3-CF7DD873C58B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2C2EC-4C05-4B7A-ACF5-F6DC153EB164}">
+  <sheetPr codeName="גיליון4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -432,13 +480,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E1B68-FE15-4E75-B7A6-63B0E75BA1CE}">
+  <sheetPr codeName="גיליון5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -446,13 +495,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CD0B6F-0567-4281-BE54-0E2D34CD542D}">
+  <sheetPr codeName="גיליון6"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -460,13 +510,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
+  <sheetPr codeName="גיליון7"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574BB2-9483-4F62-AC74-E58B7C40D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="11" sheetId="1" r:id="rId1"/>
-    <sheet name="12" sheetId="2" r:id="rId2"/>
-    <sheet name="13" sheetId="3" r:id="rId3"/>
-    <sheet name="14" sheetId="4" r:id="rId4"/>
-    <sheet name="15" sheetId="5" r:id="rId5"/>
-    <sheet name="16" sheetId="6" r:id="rId6"/>
-    <sheet name="17" sheetId="7" r:id="rId7"/>
+    <sheet name="9" sheetId="8" r:id="rId1"/>
+    <sheet name="11" sheetId="1" r:id="rId2"/>
+    <sheet name="12" sheetId="2" r:id="rId3"/>
+    <sheet name="13" sheetId="3" r:id="rId4"/>
+    <sheet name="14" sheetId="4" r:id="rId5"/>
+    <sheet name="15" sheetId="5" r:id="rId6"/>
+    <sheet name="16" sheetId="6" r:id="rId7"/>
+    <sheet name="17" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>esti leykind</t>
   </si>
@@ -62,11 +62,23 @@
   <si>
     <t>Nitay Man</t>
   </si>
+  <si>
+    <t>Nitzan Butbul</t>
+  </si>
+  <si>
+    <t>Hadar Dahan</t>
+  </si>
+  <si>
+    <t>Shelly Safrai</t>
+  </si>
+  <si>
+    <t>Yuval Melamed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +389,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -385,39 +432,39 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון2"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -427,33 +474,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0A5F5-9C5D-4818-B4E3-CF7DD873C58B}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון3"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -463,8 +510,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2C2EC-4C05-4B7A-ACF5-F6DC153EB164}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון4"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -472,14 +519,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E1B68-FE15-4E75-B7A6-63B0E75BA1CE}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון5"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -487,14 +534,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CD0B6F-0567-4281-BE54-0E2D34CD542D}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון6"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -502,14 +549,14 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון7"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -517,7 +564,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574BB2-9483-4F62-AC74-E58B7C40D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F359120-CA87-4099-A9F7-5752688B53C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8805" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>esti leykind</t>
   </si>
@@ -61,13 +61,57 @@
   </si>
   <si>
     <t>Nitay Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Names </t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group number </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Gal Etach</t>
+  </si>
+  <si>
+    <t>Shani Gueta</t>
+  </si>
+  <si>
+    <t>Ron Bitan</t>
+  </si>
+  <si>
+    <t>Ofri Ben David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +119,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +169,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +469,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -400,24 +484,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -430,36 +514,95 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0A5F5-9C5D-4818-B4E3-CF7DD873C58B}">
   <sheetPr codeName="גיליון3"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>315864694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>208499186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -472,7 +615,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +630,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,7 +645,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +660,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574BB2-9483-4F62-AC74-E58B7C40D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDBF102-9055-4351-AAFD-E81AB3636C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>esti leykind</t>
   </si>
@@ -61,6 +58,18 @@
   </si>
   <si>
     <t>Nitay Man</t>
+  </si>
+  <si>
+    <t>Yuval Koskas</t>
+  </si>
+  <si>
+    <t>Lior Tsalovich</t>
+  </si>
+  <si>
+    <t>Noam Raanan</t>
+  </si>
+  <si>
+    <t>Maxim Gutnik</t>
   </si>
 </sst>
 </file>
@@ -385,7 +394,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -400,24 +409,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -432,28 +441,28 @@
   <sheetPr codeName="גיליון3"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -472,7 +481,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +496,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,7 +511,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -511,14 +520,35 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
   <sheetPr codeName="גיליון7"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDBF102-9055-4351-AAFD-E81AB3636C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C1BE21-2397-4EE5-A6B4-C0230EF9F641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="16" sheetId="6" r:id="rId6"/>
     <sheet name="17" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,16 +60,16 @@
     <t>Nitay Man</t>
   </si>
   <si>
-    <t>Yuval Koskas</t>
-  </si>
-  <si>
-    <t>Lior Tsalovich</t>
-  </si>
-  <si>
-    <t>Noam Raanan</t>
-  </si>
-  <si>
-    <t>Maxim Gutnik</t>
+    <t>batel elbaz</t>
+  </si>
+  <si>
+    <t>shahar gavriel</t>
+  </si>
+  <si>
+    <t>liad tzvaot</t>
+  </si>
+  <si>
+    <t>idan yontov</t>
   </si>
 </sst>
 </file>
@@ -388,14 +388,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -520,35 +541,14 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
   <sheetPr codeName="גיליון7"/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574BB2-9483-4F62-AC74-E58B7C40D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C1BE21-2397-4EE5-A6B4-C0230EF9F641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="16" sheetId="6" r:id="rId6"/>
     <sheet name="17" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>esti leykind</t>
   </si>
@@ -61,6 +58,18 @@
   </si>
   <si>
     <t>Nitay Man</t>
+  </si>
+  <si>
+    <t>batel elbaz</t>
+  </si>
+  <si>
+    <t>shahar gavriel</t>
+  </si>
+  <si>
+    <t>liad tzvaot</t>
+  </si>
+  <si>
+    <t>idan yontov</t>
   </si>
 </sst>
 </file>
@@ -379,14 +388,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -400,24 +430,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -432,28 +462,28 @@
   <sheetPr codeName="גיליון3"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -472,7 +502,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +517,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,7 +532,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +547,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574BB2-9483-4F62-AC74-E58B7C40D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C50A264-E53C-4AB7-83EB-980B8F552CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>esti leykind</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Nitay Man</t>
+  </si>
+  <si>
+    <t>Dana Salomon</t>
+  </si>
+  <si>
+    <t>Moria Minz</t>
+  </si>
+  <si>
+    <t>Ariel Avivi</t>
+  </si>
+  <si>
+    <t>Tali Ninio</t>
   </si>
 </sst>
 </file>
@@ -385,7 +397,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -400,24 +412,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -432,28 +444,28 @@
   <sheetPr codeName="גיליון3"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -472,7 +484,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -481,14 +493,35 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E1B68-FE15-4E75-B7A6-63B0E75BA1CE}">
   <sheetPr codeName="גיליון5"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -502,7 +535,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +550,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574BB2-9483-4F62-AC74-E58B7C40D878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B6998-01EC-470A-BE53-D67734098F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="830" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>esti leykind</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Nitay Man</t>
+  </si>
+  <si>
+    <t>Liel Azulay</t>
+  </si>
+  <si>
+    <t>Talia Arbiv</t>
+  </si>
+  <si>
+    <t>Adi Zadicareo</t>
+  </si>
+  <si>
+    <t>Paz Elraz</t>
   </si>
 </sst>
 </file>
@@ -385,7 +397,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -394,32 +406,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
   <sheetPr codeName="גיליון2"/>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -432,28 +456,28 @@
   <sheetPr codeName="גיליון3"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -472,7 +496,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -487,7 +511,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,7 +526,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +541,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B6998-01EC-470A-BE53-D67734098F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C1BE21-2397-4EE5-A6B4-C0230EF9F641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="830" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="16" sheetId="6" r:id="rId6"/>
     <sheet name="17" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,16 +60,16 @@
     <t>Nitay Man</t>
   </si>
   <si>
-    <t>Liel Azulay</t>
-  </si>
-  <si>
-    <t>Talia Arbiv</t>
-  </si>
-  <si>
-    <t>Adi Zadicareo</t>
-  </si>
-  <si>
-    <t>Paz Elraz</t>
+    <t>batel elbaz</t>
+  </si>
+  <si>
+    <t>shahar gavriel</t>
+  </si>
+  <si>
+    <t>liad tzvaot</t>
+  </si>
+  <si>
+    <t>idan yontov</t>
   </si>
 </sst>
 </file>
@@ -391,14 +388,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -406,44 +424,32 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
   <sheetPr codeName="גיליון2"/>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B6998-01EC-470A-BE53-D67734098F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE2FA3-DA8E-462C-9E68-C0669FE6FBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="830" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>esti leykind</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Paz Elraz</t>
+  </si>
+  <si>
+    <t>Galy Aviv</t>
+  </si>
+  <si>
+    <t>Dorin Amsalem</t>
+  </si>
+  <si>
+    <t>Einav Miller</t>
+  </si>
+  <si>
+    <t>Reut Goldman</t>
   </si>
 </sst>
 </file>
@@ -408,7 +420,7 @@
   <sheetPr codeName="גיליון2"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -505,14 +517,35 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E1B68-FE15-4E75-B7A6-63B0E75BA1CE}">
   <sheetPr codeName="גיליון5"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B6998-01EC-470A-BE53-D67734098F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B8295-F540-4EFE-B157-75EC95BCA0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="830" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>esti leykind</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Paz Elraz</t>
+  </si>
+  <si>
+    <t>Bar Eckstien</t>
+  </si>
+  <si>
+    <t>Itai Orr</t>
+  </si>
+  <si>
+    <t>Ofri Efrati</t>
+  </si>
+  <si>
+    <t>Liav Teplizkiy</t>
   </si>
 </sst>
 </file>
@@ -391,14 +403,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="גיליון1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -408,7 +441,7 @@
   <sheetPr codeName="גיליון2"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B6998-01EC-470A-BE53-D67734098F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B161CE-A72F-48E3-B74B-62AD5DA126DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="830" windowWidth="14400" windowHeight="7370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>esti leykind</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Paz Elraz</t>
+  </si>
+  <si>
+    <t>menachem avital</t>
+  </si>
+  <si>
+    <t>liraz arazi</t>
+  </si>
+  <si>
+    <t>ragda mehamda</t>
   </si>
 </sst>
 </file>
@@ -406,39 +415,48 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
   <sheetPr codeName="גיליון2"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE2FA3-DA8E-462C-9E68-C0669FE6FBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283705D3-3272-46E0-B866-76FC5A5DAC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>esti leykind</t>
   </si>
@@ -85,6 +84,15 @@
   </si>
   <si>
     <t>Reut Goldman</t>
+  </si>
+  <si>
+    <t>Alon Nadel</t>
+  </si>
+  <si>
+    <t>Bar Naor</t>
+  </si>
+  <si>
+    <t>Gil Tamir</t>
   </si>
 </sst>
 </file>
@@ -95,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -409,7 +417,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -424,7 +432,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -472,7 +480,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -502,14 +510,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2C2EC-4C05-4B7A-ACF5-F6DC153EB164}">
   <sheetPr codeName="גיליון4"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -519,11 +543,11 @@
   <sheetPr codeName="גיליון5"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -559,7 +583,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -574,7 +598,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE2FA3-DA8E-462C-9E68-C0669FE6FBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -16,7 +15,7 @@
     <sheet name="16" sheetId="6" r:id="rId6"/>
     <sheet name="17" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>esti leykind</t>
   </si>
@@ -86,11 +85,23 @@
   <si>
     <t>Reut Goldman</t>
   </si>
+  <si>
+    <t>Ofri Shitrit</t>
+  </si>
+  <si>
+    <t>Ori Bredin</t>
+  </si>
+  <si>
+    <t>Hadas Lavi Simani</t>
+  </si>
+  <si>
+    <t>Eitan Halley</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -409,14 +420,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון2"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -424,9 +435,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -442,7 +453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -450,7 +461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -464,7 +475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0A5F5-9C5D-4818-B4E3-CF7DD873C58B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון3"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -472,24 +483,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -500,47 +511,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2C2EC-4C05-4B7A-ACF5-F6DC153EB164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון4"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E1B68-FE15-4E75-B7A6-63B0E75BA1CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון5"/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -551,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CD0B6F-0567-4281-BE54-0E2D34CD542D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון6"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -559,14 +591,14 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="גיליון7"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -574,7 +606,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283705D3-3272-46E0-B866-76FC5A5DAC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9937E1-EB9D-41A6-A5B6-A1B79BC48905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>esti leykind</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Gil Tamir</t>
+  </si>
+  <si>
+    <t>Lior Malik</t>
+  </si>
+  <si>
+    <t>Astar Avraham</t>
+  </si>
+  <si>
+    <t>Noa Malka</t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -417,7 +426,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -432,7 +441,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -480,7 +489,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -512,11 +521,11 @@
   <sheetPr codeName="גיליון4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -541,13 +550,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E1B68-FE15-4E75-B7A6-63B0E75BA1CE}">
   <sheetPr codeName="גיליון5"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -567,6 +576,21 @@
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +607,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -598,7 +622,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283705D3-3272-46E0-B866-76FC5A5DAC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A05FB8E-64BA-446E-BDE4-335DF694ECF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>esti leykind</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Gil Tamir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuval Koskas </t>
+  </si>
+  <si>
+    <t>Max Gutnik</t>
+  </si>
+  <si>
+    <t>Noam Raanan</t>
+  </si>
+  <si>
+    <t>Lior Tsalovich</t>
   </si>
 </sst>
 </file>
@@ -103,7 +115,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -417,7 +429,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -432,7 +444,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -480,7 +492,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -512,11 +524,11 @@
   <sheetPr codeName="גיליון4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -547,7 +559,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -583,7 +595,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -592,14 +604,35 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA65734F-1BB6-4740-AED5-75ABD12BEB34}">
   <sheetPr codeName="גיליון7"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283705D3-3272-46E0-B866-76FC5A5DAC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5CBA45-AF60-4F40-8903-DE859001134C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>esti leykind</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Gil Tamir</t>
+  </si>
+  <si>
+    <t>Gil Biton</t>
+  </si>
+  <si>
+    <t>Or Milishtein</t>
+  </si>
+  <si>
+    <t>Tamir mordoch</t>
+  </si>
+  <si>
+    <t>Noam chezana</t>
   </si>
 </sst>
 </file>
@@ -103,7 +115,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -417,7 +429,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -426,44 +438,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D780CD77-293F-46EC-982D-8D3272935F27}">
   <sheetPr codeName="גיליון2"/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -480,7 +504,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -512,11 +536,11 @@
   <sheetPr codeName="גיליון4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -547,7 +571,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -583,7 +607,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -598,7 +622,7 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Administration/submission groups.xlsx
+++ b/Administration/submission groups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283705D3-3272-46E0-B866-76FC5A5DAC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAAB6B-5F4F-4FB5-8887-A0F1C6AC2588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="528" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>esti leykind</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Gil Tamir</t>
+  </si>
+  <si>
+    <t>Gabreal haj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amitay Lavi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michal Yonasi </t>
+  </si>
+  <si>
+    <t>Yaniv Avraham</t>
   </si>
 </sst>
 </file>
@@ -474,32 +486,44 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB0A5F5-9C5D-4818-B4E3-CF7DD873C58B}">
   <sheetPr codeName="גיליון3"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -512,7 +536,7 @@
   <sheetPr codeName="גיליון4"/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
